--- a/pred_ohlcv/54_21/2020-01-21 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 EOS ohlcv.xlsx
@@ -4994,7 +4994,7 @@
         <v>-63576.88877566998</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-58788.09867566998</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-56533.40827566998</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-48308.68665525998</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-49584.81455525998</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-49259.64845525998</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-49259.64845525998</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-56028.89215525999</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-45209.75190550998</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-44853.90050550998</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-38095.67570550999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-51295.81746225998</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-52473.04444061999</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-52376.91844061999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-57857.67053108999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-56785.38993108999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-59723.65073108999</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1658575.64987148</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1658575.64987148</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1660569.74436055</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1659350.16666055</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1655184.73546055</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1655527.10426055</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1655528.30421184</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>1654816.15671184</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>1654781.09011184</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>1654589.09011184</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1654747.09191184</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1654833.05831184</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1654706.52551184</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1653200.49191184</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1649555.38331184</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1649555.38331184</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1647917.85311184</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1647917.85311184</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1648001.13301184</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>1639257.05991184</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>1641591.41561184</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>1641437.25371184</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>1641889.02861184</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>1640190.12831184</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>1639435.33601184</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>1639477.36580426</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>1639473.79520426</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>1652178.40917878</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>1652028.40917878</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>1652018.06557878</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>1651339.07557878</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>1650041.62757878</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>1653604.59284623</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>1650739.20144623</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>1650768.27074623</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>1650081.26724623</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>1650053.94394623</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>1650704.04454623</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>1651496.70783221</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>1651053.344932209</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>1651056.074932209</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>1650935.265232209</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>1650935.265232209</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>1651040.265232209</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>1648945.392332209</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>1648942.399832209</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>1648942.399832209</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>1648943.399832209</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>1650680.403732209</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>1653796.193632209</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>1653436.193632209</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>1653436.193632209</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>1651458.670332209</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>1651458.670332209</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>1651637.369832209</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>1654868.191232209</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>1654025.592332209</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>1654025.592332209</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>1654288.057332209</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>1654302.913917909</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>1655033.266774749</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>1654697.825874749</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>1649307.840074749</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>1647844.841574749</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>1648508.544174749</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>1647997.845974749</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>1647685.414674749</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>1649941.916574749</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>1642823.895774749</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>1643573.492774749</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>1643573.492774749</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>1644024.637688329</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>1644024.637688329</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>1639528.49688833</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>1641692.212788329</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>1641692.212788329</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>1650172.41448833</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>1649770.50738833</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>1649770.50738833</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>1648450.88338833</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>1648450.88338833</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>1648451.88338833</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>1646451.88338833</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>1646159.19368833</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>1647022.702088329</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>1645453.165788329</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>1645443.165788329</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>1647395.648388329</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>1647395.648388329</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>1648380.74838833</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>1649562.35428833</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>1649812.83518833</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>1649812.83518833</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>1649767.36868833</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>1645756.466788329</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>1645756.466788329</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>1646020.653788329</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>1643885.530688329</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>1643685.530688329</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>1644373.249388329</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>1641886.249388329</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>1643772.666888329</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>1643231.667688329</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>1643225.057388329</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>1640563.065488329</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>1640030.430388329</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>1640030.430388329</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>1650185.600588329</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>1646376.843688329</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>1646376.843688329</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>1648233.822588329</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>1648846.231088329</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>1647356.542388329</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>1647356.542388329</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>1650928.194688329</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>1655687.353088329</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>1655916.253088329</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>1655468.900888329</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>1652992.633788329</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>1652982.003088329</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>1651934.375088329</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>1652134.375088329</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>1651207.570988329</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>1649789.444288329</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>1649959.247288329</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>1650014.401588329</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>1648273.991488329</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>1648273.991488329</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>1647003.434688329</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>1643978.273688289</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>1642510.615188289</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>1619193.089288289</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>1606782.41139813</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>1648816.934353871</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>1646984.505562961</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>1648242.147462961</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>1646698.49716296</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>1650563.35066296</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>1645963.97006296</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>1651256.75506296</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>1650268.69367568</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>1648066.74277568</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>1656206.64397568</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>1656800.76057568</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>1652579.03867568</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>1653062.89377568</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>1650486.20647568</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>1658831.88387568</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>1666636.62220156</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>1666636.62220156</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>1671778.76520156</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>1672939.11730156</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>1670512.01730156</v>
       </c>
       <c r="H1146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>1669928.42330156</v>
       </c>
       <c r="H1147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>1688346.17230156</v>
       </c>
       <c r="H1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>1686694.13250156</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>1686694.13250156</v>
       </c>
       <c r="H1158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>1685619.26400156</v>
       </c>
       <c r="H1159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>1680142.67082991</v>
       </c>
       <c r="H1160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>1679697.26172991</v>
       </c>
       <c r="H1161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>1680243.845129909</v>
       </c>
       <c r="H1162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>1681241.10122991</v>
       </c>
       <c r="H1163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 EOS ohlcv.xlsx
@@ -4994,7 +4994,7 @@
         <v>-63576.88877566998</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-58788.09867566998</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-56533.40827566998</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-48308.68665525998</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-49584.81455525998</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-49259.64845525998</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-49259.64845525998</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-48820.33625525998</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-50101.83185525998</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-51515.74475525998</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-55274.95455525998</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-56092.93115525998</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-56028.89215525999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-45211.18190550998</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-45209.75190550998</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-44853.90050550998</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-38095.67570550999</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-51295.81746225998</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-54939.91754061999</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-52473.04444061999</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-51915.31844061999</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-52662.71844061999</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-52144.71844061999</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-52376.91844061999</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-54662.91844061999</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-57857.67053108999</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-56785.38993108999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-59723.65073108999</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-63703.96313108999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-62803.96313108999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-59819.85063108999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-62099.01753108999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-56463.17943108999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-59619.77853108999</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-71773.02443108999</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-69964.02813108999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-74092.66303108999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-64893.18583108999</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1658575.64987148</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1660569.74436055</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1659350.16666055</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1655184.73546055</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1655527.10426055</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1655528.30421184</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>1654816.15671184</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>1654781.09011184</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>1654589.09011184</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1654747.09191184</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1654833.05831184</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1654901.40851184</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1654706.52551184</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1653200.49191184</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1649555.38331184</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1647917.85311184</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1647917.85311184</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1648001.13301184</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1648001.13301184</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>1648004.70091184</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>1639257.05991184</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>1650382.13471184</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>1641591.41561184</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>1641437.25371184</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>1641889.02861184</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>1640190.12831184</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>1640190.12831184</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>1639435.33601184</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>1639895.85920426</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>1638596.50310426</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>1644461.78260426</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>1644461.78260426</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>1644518.90421874</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>1652821.65187878</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>1655381.80617878</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>1652178.40917878</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>1652028.40917878</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>1651339.07557878</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>1653604.59284623</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>1654071.95954623</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>1650739.20144623</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>1650768.27074623</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>1651619.87634623</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>1650081.26724623</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>1650053.94394623</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>1650704.04454623</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>1651496.70783221</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>1651053.344932209</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>1651056.074932209</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>1650935.265232209</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>1650935.265232209</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>1651040.265232209</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>1648945.392332209</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>1648942.399832209</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>1648942.399832209</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>1648943.399832209</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>1650680.403732209</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>1653796.193632209</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>1653436.193632209</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>1653436.193632209</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>1651458.670332209</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>1651458.670332209</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>1651637.369832209</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>1654868.191232209</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>1654025.592332209</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>1654025.592332209</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>1654288.057332209</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>1654302.913917909</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>1655033.266774749</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>1654697.825874749</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>1649307.840074749</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>1647844.841574749</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>1648508.544174749</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>1647997.845974749</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>1647685.414674749</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>1649941.916574749</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>1642823.895774749</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>1643573.492774749</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>1643573.492774749</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>1644024.637688329</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>1644024.637688329</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>1639528.49688833</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>1641692.212788329</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>1641692.212788329</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>1650172.41448833</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>1649770.50738833</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>1649770.50738833</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>1648450.88338833</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>1648450.88338833</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>1648451.88338833</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>1646451.88338833</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>1646159.19368833</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>1647022.702088329</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>1645094.925788329</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>1645453.165788329</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>1645443.165788329</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>1647395.648388329</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>1647395.648388329</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>1648380.74838833</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>1649562.35428833</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>1649812.83518833</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>1649812.83518833</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>1649767.36868833</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>1649361.297888329</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>1645756.466788329</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>1645756.466788329</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>1646020.653788329</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>1643885.530688329</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>1643685.530688329</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>1644373.249388329</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>1641886.249388329</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>1643772.666888329</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>1643231.667688329</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>1643225.057388329</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>1640563.065488329</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>1640030.430388329</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>1640030.430388329</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>1650185.600588329</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>1646376.843688329</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>1646376.843688329</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>1648233.822588329</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>1648846.231088329</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>1647356.542388329</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>1647356.542388329</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>1650928.194688329</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>1655687.353088329</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>1655916.253088329</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>1655468.900888329</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>1652992.633788329</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>1652982.003088329</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>1651934.375088329</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>1652134.375088329</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>1651207.570988329</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>1649789.444288329</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>1649959.247288329</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>1648273.991488329</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>1619345.083488289</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>1619193.089288289</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>1619193.089288289</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>1618955.089288289</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>1617694.089288289</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>1617697.66448829</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>1608857.00919813</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>1608338.78959813</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>1608338.78959813</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>1606515.45099813</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>1607801.58619813</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>1606782.41139813</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>1606426.86949813</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>1606426.86949813</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>1648816.934353871</v>
       </c>
       <c r="H1123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>1646984.505562961</v>
       </c>
       <c r="H1124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>1648242.147462961</v>
       </c>
       <c r="H1125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>1646698.49716296</v>
       </c>
       <c r="H1126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>1650563.35066296</v>
       </c>
       <c r="H1127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>1645963.97006296</v>
       </c>
       <c r="H1128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>1651256.75506296</v>
       </c>
       <c r="H1129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>1650268.69367568</v>
       </c>
       <c r="H1130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>1648066.74277568</v>
       </c>
       <c r="H1131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>1656206.64397568</v>
       </c>
       <c r="H1132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>1656800.76057568</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>1652579.03867568</v>
       </c>
       <c r="H1134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>1653062.89377568</v>
       </c>
       <c r="H1135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>1650486.20647568</v>
       </c>
       <c r="H1136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>1658831.88387568</v>
       </c>
       <c r="H1137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>1666636.62220156</v>
       </c>
       <c r="H1138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>1666636.62220156</v>
       </c>
       <c r="H1139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>1671778.76520156</v>
       </c>
       <c r="H1140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>1672939.11730156</v>
       </c>
       <c r="H1141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30084,7 +30084,7 @@
         <v>1672358.08550156</v>
       </c>
       <c r="H1142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:8">
@@ -30162,7 +30162,7 @@
         <v>1670512.01730156</v>
       </c>
       <c r="H1145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:8">
@@ -30188,7 +30188,7 @@
         <v>1670512.01730156</v>
       </c>
       <c r="H1146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:8">
@@ -30214,7 +30214,7 @@
         <v>1669928.42330156</v>
       </c>
       <c r="H1147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>1688346.17230156</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>1686694.13250156</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30500,7 +30500,7 @@
         <v>1686694.13250156</v>
       </c>
       <c r="H1158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1159" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>1685619.26400156</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>1680142.67082991</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30578,7 +30578,7 @@
         <v>1679697.26172991</v>
       </c>
       <c r="H1161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1162" spans="1:8">
@@ -30604,7 +30604,7 @@
         <v>1680243.845129909</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1163" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>1681241.10122991</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
